--- a/results/0723_numbers.xlsx
+++ b/results/0723_numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qwang3\OneDrive - hsconline\Desktop\gui test\data\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D77E0070-B2C9-49EE-BD4B-8C80FC12230F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CD1482F-0751-4953-93BA-5E55CB1764F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>2600也是6600！6600赛高！</t>
   </si>
@@ -37,7 +37,7 @@
     <t>生了是个太极</t>
   </si>
   <si>
-    <t>发呆的沼跃鱼</t>
+    <t>发呆的沼跃鱼1</t>
   </si>
   <si>
     <t>福禄双霸天3.6flag</t>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>没陈琳我们幸运星该怎么办</t>
+  </si>
+  <si>
+    <t>发呆的沼跃鱼2</t>
   </si>
   <si>
     <t>罗夏</t>
@@ -1268,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1281,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1289,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>92</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1297,7 +1300,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1305,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1313,7 +1316,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1321,7 +1324,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1329,7 +1332,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>43</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1337,7 +1340,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>42</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1345,7 +1348,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1353,7 +1356,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1361,7 +1364,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1369,7 +1372,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1377,7 +1380,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>93</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1385,7 +1388,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1401,7 +1404,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1409,7 +1412,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1417,7 +1420,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1425,7 +1428,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1433,7 +1436,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1441,7 +1444,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1449,7 +1452,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1457,7 +1460,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1465,7 +1468,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1473,7 +1476,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1481,7 +1484,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1489,7 +1492,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1497,7 +1500,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1505,7 +1508,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1513,7 +1516,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1521,7 +1524,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1529,7 +1532,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>79</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1537,7 +1540,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1545,7 +1548,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1553,7 +1556,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1561,7 +1564,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1569,7 +1572,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>88</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1577,7 +1580,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>90</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1585,7 +1588,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1593,7 +1596,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1601,7 +1604,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1609,7 +1612,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1617,7 +1620,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1625,7 +1628,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1633,7 +1636,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1641,7 +1644,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1649,7 +1652,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1657,23 +1660,23 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>111</v>
       </c>
-      <c r="B49">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
       <c r="B50">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1681,7 +1684,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>98</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1689,7 +1692,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1697,7 +1700,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1705,7 +1708,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1713,7 +1716,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>84</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1721,7 +1724,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1729,7 +1732,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1737,7 +1740,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1745,7 +1748,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1753,7 +1756,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1761,7 +1764,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1769,7 +1772,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1777,7 +1780,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1785,7 +1788,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1793,7 +1796,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1801,7 +1804,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1809,7 +1812,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1817,7 +1820,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>14</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1825,7 +1828,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1833,7 +1836,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1841,7 +1844,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1849,7 +1852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1857,7 +1860,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1865,7 +1868,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1873,7 +1876,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1881,7 +1884,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1889,7 +1892,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1897,7 +1900,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>95</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1905,7 +1908,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>23</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1913,7 +1916,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1921,7 +1924,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1929,7 +1932,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1937,7 +1940,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1945,7 +1948,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1953,7 +1956,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>101</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1961,7 +1964,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1969,7 +1972,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>94</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1977,7 +1980,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1985,7 +1988,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1993,7 +1996,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2001,7 +2004,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2009,7 +2012,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2017,7 +2020,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>24</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2025,7 +2028,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2033,7 +2036,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2041,7 +2044,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2049,7 +2052,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2065,7 +2068,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2073,11 +2076,20 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>30</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>